--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -671,6 +671,96 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>14-08-2021</t>
+  </si>
+  <si>
+    <t>15-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>21-08-2021</t>
+  </si>
+  <si>
+    <t>22-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>29-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4058,6 +4148,426 @@
         <v>77</v>
       </c>
     </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217">
+        <v>899</v>
+      </c>
+      <c r="C217">
+        <v>5115</v>
+      </c>
+      <c r="D217">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218">
+        <v>897</v>
+      </c>
+      <c r="C218">
+        <v>5108</v>
+      </c>
+      <c r="D218">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219">
+        <v>896</v>
+      </c>
+      <c r="C219">
+        <v>5101</v>
+      </c>
+      <c r="D219">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220">
+        <v>896</v>
+      </c>
+      <c r="C220">
+        <v>5101</v>
+      </c>
+      <c r="D220">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221">
+        <v>896</v>
+      </c>
+      <c r="C221">
+        <v>5101</v>
+      </c>
+      <c r="D221">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222">
+        <v>887</v>
+      </c>
+      <c r="C222">
+        <v>5050</v>
+      </c>
+      <c r="D222">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223">
+        <v>884</v>
+      </c>
+      <c r="C223">
+        <v>5031</v>
+      </c>
+      <c r="D223">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224">
+        <v>892</v>
+      </c>
+      <c r="C224">
+        <v>5079</v>
+      </c>
+      <c r="D224">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225">
+        <v>900</v>
+      </c>
+      <c r="C225">
+        <v>5125</v>
+      </c>
+      <c r="D225">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226">
+        <v>901</v>
+      </c>
+      <c r="C226">
+        <v>5127</v>
+      </c>
+      <c r="D226">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227">
+        <v>901</v>
+      </c>
+      <c r="C227">
+        <v>5127</v>
+      </c>
+      <c r="D227">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228">
+        <v>901</v>
+      </c>
+      <c r="C228">
+        <v>5127</v>
+      </c>
+      <c r="D228">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229">
+        <v>899</v>
+      </c>
+      <c r="C229">
+        <v>5117</v>
+      </c>
+      <c r="D229">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230">
+        <v>888</v>
+      </c>
+      <c r="C230">
+        <v>5052</v>
+      </c>
+      <c r="D230">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231">
+        <v>881</v>
+      </c>
+      <c r="C231">
+        <v>5017</v>
+      </c>
+      <c r="D231">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232">
+        <v>884</v>
+      </c>
+      <c r="C232">
+        <v>5029</v>
+      </c>
+      <c r="D232">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233">
+        <v>881</v>
+      </c>
+      <c r="C233">
+        <v>5015</v>
+      </c>
+      <c r="D233">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234">
+        <v>881</v>
+      </c>
+      <c r="C234">
+        <v>5015</v>
+      </c>
+      <c r="D234">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235">
+        <v>881</v>
+      </c>
+      <c r="C235">
+        <v>5015</v>
+      </c>
+      <c r="D235">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236">
+        <v>885</v>
+      </c>
+      <c r="C236">
+        <v>5038</v>
+      </c>
+      <c r="D236">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237">
+        <v>889</v>
+      </c>
+      <c r="C237">
+        <v>5058</v>
+      </c>
+      <c r="D237">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238">
+        <v>890</v>
+      </c>
+      <c r="C238">
+        <v>5065</v>
+      </c>
+      <c r="D238">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239">
+        <v>889</v>
+      </c>
+      <c r="C239">
+        <v>5060</v>
+      </c>
+      <c r="D239">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240">
+        <v>887</v>
+      </c>
+      <c r="C240">
+        <v>5046</v>
+      </c>
+      <c r="D240">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241">
+        <v>887</v>
+      </c>
+      <c r="C241">
+        <v>5046</v>
+      </c>
+      <c r="D241">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242">
+        <v>887</v>
+      </c>
+      <c r="C242">
+        <v>5046</v>
+      </c>
+      <c r="D242">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243">
+        <v>887</v>
+      </c>
+      <c r="C243">
+        <v>5051</v>
+      </c>
+      <c r="D243">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244">
+        <v>892</v>
+      </c>
+      <c r="C244">
+        <v>5079</v>
+      </c>
+      <c r="D244">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245">
+        <v>898</v>
+      </c>
+      <c r="C245">
+        <v>5111</v>
+      </c>
+      <c r="D245">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246">
+        <v>907</v>
+      </c>
+      <c r="C246">
+        <v>5165</v>
+      </c>
+      <c r="D246">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>Serie</t>
   </si>
@@ -761,6 +761,18 @@
   </si>
   <si>
     <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>04-09-2021</t>
+  </si>
+  <si>
+    <t>05-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4568,6 +4580,62 @@
         <v>77</v>
       </c>
     </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247">
+        <v>906</v>
+      </c>
+      <c r="C247">
+        <v>5156</v>
+      </c>
+      <c r="D247">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248">
+        <v>906</v>
+      </c>
+      <c r="C248">
+        <v>5156</v>
+      </c>
+      <c r="D248">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249">
+        <v>906</v>
+      </c>
+      <c r="C249">
+        <v>5156</v>
+      </c>
+      <c r="D249">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250">
+        <v>908</v>
+      </c>
+      <c r="C250">
+        <v>5168</v>
+      </c>
+      <c r="D250">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>Serie</t>
   </si>
@@ -773,6 +773,30 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>11-09-2021</t>
+  </si>
+  <si>
+    <t>12-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4636,6 +4660,118 @@
         <v>77</v>
       </c>
     </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251">
+        <v>904</v>
+      </c>
+      <c r="C251">
+        <v>5143</v>
+      </c>
+      <c r="D251">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252">
+        <v>895</v>
+      </c>
+      <c r="C252">
+        <v>5093</v>
+      </c>
+      <c r="D252">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253">
+        <v>884</v>
+      </c>
+      <c r="C253">
+        <v>5031</v>
+      </c>
+      <c r="D253">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254">
+        <v>880</v>
+      </c>
+      <c r="C254">
+        <v>5007</v>
+      </c>
+      <c r="D254">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255">
+        <v>880</v>
+      </c>
+      <c r="C255">
+        <v>5007</v>
+      </c>
+      <c r="D255">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256">
+        <v>880</v>
+      </c>
+      <c r="C256">
+        <v>5007</v>
+      </c>
+      <c r="D256">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257">
+        <v>881</v>
+      </c>
+      <c r="C257">
+        <v>5015</v>
+      </c>
+      <c r="D257">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258">
+        <v>887</v>
+      </c>
+      <c r="C258">
+        <v>5052</v>
+      </c>
+      <c r="D258">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>Serie</t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4772,6 +4775,20 @@
         <v>75</v>
       </c>
     </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259">
+        <v>889</v>
+      </c>
+      <c r="C259">
+        <v>5058</v>
+      </c>
+      <c r="D259">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>Serie</t>
   </si>
@@ -800,6 +800,48 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>18-09-2021</t>
+  </si>
+  <si>
+    <t>19-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>25-09-2021</t>
+  </si>
+  <si>
+    <t>26-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4789,6 +4831,202 @@
         <v>75</v>
       </c>
     </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260">
+        <v>890</v>
+      </c>
+      <c r="C260">
+        <v>5067</v>
+      </c>
+      <c r="D260">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261">
+        <v>890</v>
+      </c>
+      <c r="C261">
+        <v>5067</v>
+      </c>
+      <c r="D261">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262">
+        <v>890</v>
+      </c>
+      <c r="C262">
+        <v>5067</v>
+      </c>
+      <c r="D262">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263">
+        <v>890</v>
+      </c>
+      <c r="C263">
+        <v>5067</v>
+      </c>
+      <c r="D263">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264">
+        <v>892</v>
+      </c>
+      <c r="C264">
+        <v>5075</v>
+      </c>
+      <c r="D264">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265">
+        <v>883</v>
+      </c>
+      <c r="C265">
+        <v>5027</v>
+      </c>
+      <c r="D265">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266">
+        <v>887</v>
+      </c>
+      <c r="C266">
+        <v>5046</v>
+      </c>
+      <c r="D266">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267">
+        <v>887</v>
+      </c>
+      <c r="C267">
+        <v>5047</v>
+      </c>
+      <c r="D267">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268">
+        <v>884</v>
+      </c>
+      <c r="C268">
+        <v>5032</v>
+      </c>
+      <c r="D268">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269">
+        <v>884</v>
+      </c>
+      <c r="C269">
+        <v>5032</v>
+      </c>
+      <c r="D269">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270">
+        <v>884</v>
+      </c>
+      <c r="C270">
+        <v>5032</v>
+      </c>
+      <c r="D270">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271">
+        <v>882</v>
+      </c>
+      <c r="C271">
+        <v>5021</v>
+      </c>
+      <c r="D271">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272">
+        <v>875</v>
+      </c>
+      <c r="C272">
+        <v>4980</v>
+      </c>
+      <c r="D272">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273">
+        <v>872</v>
+      </c>
+      <c r="C273">
+        <v>4961</v>
+      </c>
+      <c r="D273">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>Serie</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5027,6 +5030,20 @@
         <v>74</v>
       </c>
     </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274">
+        <v>866</v>
+      </c>
+      <c r="C274">
+        <v>4930</v>
+      </c>
+      <c r="D274">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>Serie</t>
   </si>
@@ -845,6 +845,21 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>02-10-2021</t>
+  </si>
+  <si>
+    <t>03-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5044,6 +5059,76 @@
         <v>73</v>
       </c>
     </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275">
+        <v>857</v>
+      </c>
+      <c r="C275">
+        <v>4880</v>
+      </c>
+      <c r="D275">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276">
+        <v>857</v>
+      </c>
+      <c r="C276">
+        <v>4880</v>
+      </c>
+      <c r="D276">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277">
+        <v>857</v>
+      </c>
+      <c r="C277">
+        <v>4880</v>
+      </c>
+      <c r="D277">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278">
+        <v>866</v>
+      </c>
+      <c r="C278">
+        <v>4928</v>
+      </c>
+      <c r="D278">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279">
+        <v>864</v>
+      </c>
+      <c r="C279">
+        <v>4916</v>
+      </c>
+      <c r="D279">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Serie</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5129,6 +5132,20 @@
         <v>73</v>
       </c>
     </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280">
+        <v>859</v>
+      </c>
+      <c r="C280">
+        <v>4887</v>
+      </c>
+      <c r="D280">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>Serie</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5146,6 +5149,20 @@
         <v>73</v>
       </c>
     </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281">
+        <v>853</v>
+      </c>
+      <c r="C281">
+        <v>4853</v>
+      </c>
+      <c r="D281">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>Serie</t>
   </si>
@@ -866,6 +866,24 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>09-10-2021</t>
+  </si>
+  <si>
+    <t>10-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5163,6 +5181,90 @@
         <v>72</v>
       </c>
     </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282">
+        <v>855</v>
+      </c>
+      <c r="C282">
+        <v>4869</v>
+      </c>
+      <c r="D282">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283">
+        <v>855</v>
+      </c>
+      <c r="C283">
+        <v>4869</v>
+      </c>
+      <c r="D283">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284">
+        <v>855</v>
+      </c>
+      <c r="C284">
+        <v>4869</v>
+      </c>
+      <c r="D284">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285">
+        <v>855</v>
+      </c>
+      <c r="C285">
+        <v>4869</v>
+      </c>
+      <c r="D285">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286">
+        <v>849</v>
+      </c>
+      <c r="C286">
+        <v>4830</v>
+      </c>
+      <c r="D286">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287">
+        <v>841</v>
+      </c>
+      <c r="C287">
+        <v>4787</v>
+      </c>
+      <c r="D287">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>Serie</t>
   </si>
@@ -884,6 +884,48 @@
   </si>
   <si>
     <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>16-10-2021</t>
+  </si>
+  <si>
+    <t>17-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>23-10-2021</t>
+  </si>
+  <si>
+    <t>24-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D287"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5265,6 +5307,202 @@
         <v>71</v>
       </c>
     </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288">
+        <v>849</v>
+      </c>
+      <c r="C288">
+        <v>4830</v>
+      </c>
+      <c r="D288">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289">
+        <v>852</v>
+      </c>
+      <c r="C289">
+        <v>4850</v>
+      </c>
+      <c r="D289">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290">
+        <v>852</v>
+      </c>
+      <c r="C290">
+        <v>4850</v>
+      </c>
+      <c r="D290">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291">
+        <v>852</v>
+      </c>
+      <c r="C291">
+        <v>4850</v>
+      </c>
+      <c r="D291">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292">
+        <v>842</v>
+      </c>
+      <c r="C292">
+        <v>4795</v>
+      </c>
+      <c r="D292">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293">
+        <v>848</v>
+      </c>
+      <c r="C293">
+        <v>4830</v>
+      </c>
+      <c r="D293">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294">
+        <v>856</v>
+      </c>
+      <c r="C294">
+        <v>4871</v>
+      </c>
+      <c r="D294">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295">
+        <v>858</v>
+      </c>
+      <c r="C295">
+        <v>4882</v>
+      </c>
+      <c r="D295">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>851</v>
+      </c>
+      <c r="C296">
+        <v>4846</v>
+      </c>
+      <c r="D296">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>851</v>
+      </c>
+      <c r="C297">
+        <v>4846</v>
+      </c>
+      <c r="D297">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>851</v>
+      </c>
+      <c r="C298">
+        <v>4846</v>
+      </c>
+      <c r="D298">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <v>852</v>
+      </c>
+      <c r="C299">
+        <v>4852</v>
+      </c>
+      <c r="D299">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>859</v>
+      </c>
+      <c r="C300">
+        <v>4890</v>
+      </c>
+      <c r="D300">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301">
+        <v>863</v>
+      </c>
+      <c r="C301">
+        <v>4912</v>
+      </c>
+      <c r="D301">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>Serie</t>
   </si>
@@ -926,6 +926,12 @@
   </si>
   <si>
     <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5503,6 +5509,34 @@
         <v>73</v>
       </c>
     </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302">
+        <v>865</v>
+      </c>
+      <c r="C302">
+        <v>4926</v>
+      </c>
+      <c r="D302">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303">
+        <v>864</v>
+      </c>
+      <c r="C303">
+        <v>4919</v>
+      </c>
+      <c r="D303">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>Serie</t>
   </si>
@@ -932,6 +932,18 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>30-10-2021</t>
+  </si>
+  <si>
+    <t>31-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5537,6 +5549,62 @@
         <v>73</v>
       </c>
     </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304">
+        <v>864</v>
+      </c>
+      <c r="C304">
+        <v>4919</v>
+      </c>
+      <c r="D304">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305">
+        <v>864</v>
+      </c>
+      <c r="C305">
+        <v>4919</v>
+      </c>
+      <c r="D305">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306">
+        <v>864</v>
+      </c>
+      <c r="C306">
+        <v>4919</v>
+      </c>
+      <c r="D306">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307">
+        <v>858</v>
+      </c>
+      <c r="C307">
+        <v>4886</v>
+      </c>
+      <c r="D307">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>Serie</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5605,6 +5608,20 @@
         <v>73</v>
       </c>
     </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308">
+        <v>855</v>
+      </c>
+      <c r="C308">
+        <v>4865</v>
+      </c>
+      <c r="D308">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>Serie</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5622,6 +5625,20 @@
         <v>72</v>
       </c>
     </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309">
+        <v>853</v>
+      </c>
+      <c r="C309">
+        <v>4858</v>
+      </c>
+      <c r="D309">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
+++ b/5/7/3/Recompra deuda BCCh 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Serie</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D309"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5639,6 +5642,20 @@
         <v>72</v>
       </c>
     </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310">
+        <v>853</v>
+      </c>
+      <c r="C310">
+        <v>4858</v>
+      </c>
+      <c r="D310">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
